--- a/data/datasets/datasets_excel/scores.xlsx
+++ b/data/datasets/datasets_excel/scores.xlsx
@@ -436,47 +436,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>jelly_fish</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>artificial_intelligence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>virus</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>chimpanzee</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>jelly_fish</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>god</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>autonomous_car</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>virus</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>robot</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rock</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>artificial_intelligence</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>god</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -488,106 +488,106 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>chimpanzee</t>
+          <t>jelly_fish</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-1.576923076923077</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03846153846153846</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2884615384615384</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="F2" t="n">
-        <v>1.788461538461539</v>
+        <v>-1.284313725490196</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2307692307692308</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.923076923076923</v>
+        <v>1.401960784313725</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5576923076923077</v>
+        <v>1.107843137254902</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7549019607843137</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4038461538461539</v>
+        <v>1.068627450980392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>jelly_fish</t>
+          <t>human</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.576923076923077</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0.6346153846153846</v>
+        <v>-0.9901960784313726</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4230769230769231</v>
+        <v>-1.254901960784314</v>
       </c>
       <c r="F3" t="n">
-        <v>2.461538461538462</v>
+        <v>-2.431372549019608</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8846153846153846</v>
+        <v>-1.519607843137255</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.307692307692308</v>
+        <v>-1.735294117647059</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8076923076923077</v>
+        <v>-0.4215686274509804</v>
       </c>
       <c r="J3" t="n">
-        <v>1.403846153846154</v>
+        <v>-1.392156862745098</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9615384615384616</v>
+        <v>-1.284313725490196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>autonomous_car</t>
+          <t>artificial_intelligence</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03846153846153846</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6346153846153846</v>
+        <v>0.9901960784313726</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.0576923076923077</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="F4" t="n">
-        <v>1.673076923076923</v>
+        <v>-2.088235294117647</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1730769230769231</v>
+        <v>-1.303921568627451</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.807692307692308</v>
+        <v>-0.7254901960784313</v>
       </c>
       <c r="I4" t="n">
-        <v>1.038461538461539</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5384615384615384</v>
+        <v>-1.274509803921569</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5576923076923077</v>
+        <v>-1.166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -597,67 +597,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2884615384615384</v>
+        <v>-0.6078431372549019</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4230769230769231</v>
+        <v>1.254901960784314</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.538461538461539</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.730769230769231</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6730769230769231</v>
+        <v>-0.07843137254901961</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.1862745098039216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.788461538461539</v>
+        <v>1.284313725490196</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.461538461538462</v>
+        <v>2.431372549019608</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.673076923076923</v>
+        <v>2.088235294117647</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.538461538461539</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>-1.5</v>
+        <v>1.823529411764706</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.634615384615385</v>
+        <v>1.686274509803922</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.557692307692308</v>
+        <v>1.303921568627451</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.9230769230769231</v>
+        <v>1.803921568627451</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.365384615384615</v>
+        <v>1.970588235294118</v>
       </c>
     </row>
     <row r="7">
@@ -667,137 +667,137 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2307692307692308</v>
+        <v>-0.9705882352941176</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8846153846153846</v>
+        <v>1.519607843137255</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1730769230769231</v>
+        <v>1.303921568627451</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1153846153846154</v>
+        <v>-0.2156862745098039</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>-1.823529411764706</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-1.884615384615385</v>
+        <v>-0.1568627450980392</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5192307692307693</v>
+        <v>-0.06862745098039216</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1538461538461539</v>
+        <v>-0.02941176470588235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>chimpanzee</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.923076923076923</v>
+        <v>-1.401960784313725</v>
       </c>
       <c r="C8" t="n">
-        <v>1.307692307692308</v>
+        <v>1.735294117647059</v>
       </c>
       <c r="D8" t="n">
-        <v>1.807692307692308</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="E8" t="n">
-        <v>1.730769230769231</v>
+        <v>-0.1274509803921569</v>
       </c>
       <c r="F8" t="n">
-        <v>2.634615384615385</v>
+        <v>-1.686274509803922</v>
       </c>
       <c r="G8" t="n">
-        <v>1.884615384615385</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>2.038461538461538</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="J8" t="n">
-        <v>1.403846153846154</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="K8" t="n">
-        <v>2.153846153846154</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>artificial_intelligence</t>
+          <t>god</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5576923076923077</v>
+        <v>-1.107843137254902</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.8076923076923077</v>
+        <v>0.4215686274509804</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.038461538461539</v>
+        <v>-0.2745098039215687</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4807692307692308</v>
+        <v>-0.5196078431372549</v>
       </c>
       <c r="F9" t="n">
-        <v>1.557692307692308</v>
+        <v>-1.303921568627451</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.9230769230769231</v>
+        <v>-0.5098039215686274</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.038461538461538</v>
+        <v>-0.6862745098039216</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.1730769230769231</v>
+        <v>-0.5294117647058824</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.8269230769230769</v>
+        <v>-0.3627450980392157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>god</t>
+          <t>autonomous_car</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.8461538461538461</v>
+        <v>-0.7549019607843137</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.403846153846154</v>
+        <v>1.392156862745098</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5384615384615384</v>
+        <v>1.274509803921569</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6730769230769231</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9230769230769231</v>
+        <v>-1.803921568627451</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.5192307692307693</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.403846153846154</v>
+        <v>-0.07843137254901961</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1730769230769231</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>-0.4807692307692308</v>
+        <v>0.4607843137254902</v>
       </c>
     </row>
     <row r="11">
@@ -807,31 +807,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4038461538461539</v>
+        <v>-1.068627450980392</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9615384615384616</v>
+        <v>1.284313725490196</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5576923076923077</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.09615384615384616</v>
+        <v>-0.1862745098039216</v>
       </c>
       <c r="F11" t="n">
-        <v>1.365384615384615</v>
+        <v>-1.970588235294118</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1538461538461539</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.153846153846154</v>
+        <v>-0.5098039215686274</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8269230769230769</v>
+        <v>0.3627450980392157</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4807692307692308</v>
+        <v>-0.4607843137254902</v>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
